--- a/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T18:04:52+00:00</t>
+    <t>2023-10-05T14:03:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:03:16+00:00</t>
+    <t>2023-10-05T14:18:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:18:17+00:00</t>
+    <t>2023-10-05T14:35:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>technikum-wien-treml</t>
+    <t>The Linked Care Consortium</t>
   </si>
   <si>
     <t>Contact</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:35:20+00:00</t>
+    <t>2023-10-05T14:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:43:15+00:00</t>
+    <t>2023-10-05T14:49:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:49:24+00:00</t>
+    <t>2023-10-05T14:58:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
+++ b/r5-LinkedCare-main/StructureDefinition-linca-order-medication-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T14:58:16+00:00</t>
+    <t>2023-10-17T09:41:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Individual order items created by the Linked Care system according to the contained items in the order. Send to practicioner for authorization.</t>
+    <t>Linked Care profile for individual order positions. A list of order positions is first received as contained resources in a LINCA Order. Then the Linked Care FHIR server creates an instance for each contained item. These instances are send to the assigned practicioner(s) for authorization.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -172,7 +172,7 @@
 </t>
   </si>
   <si>
-    <t>LinkedCare Order Id, assigned by the Linked Care Fhir Server. Any initial value will be overwritten.</t>
+    <t>LinkedCare Order Id, assigned by the Linked Care Fhir Server. Any initial value will be overwritten</t>
   </si>
   <si>
     <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
@@ -361,7 +361,7 @@
 </t>
   </si>
   <si>
-    <t>External ids for this request</t>
+    <t>external ID(s), e.g.: can be used to refer to a care software database record</t>
   </si>
   <si>
     <t>Identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.</t>
@@ -392,7 +392,7 @@
 </t>
   </si>
   <si>
-    <t>A plan or request that is fulfilled in whole or in part by this medication request</t>
+    <t>If this item is a correction of a previous element in the chain, set to a reference to that previous element</t>
   </si>
   <si>
     <t>A plan or request that is fulfilled in whole or in part by this medication request.</t>
@@ -411,7 +411,7 @@
 </t>
   </si>
   <si>
-    <t>Contains Reference to invalid/incorrect order that has been repalced by current.</t>
+    <t>Reference to an order/prescription that is being replaced by this MedicationRequest</t>
   </si>
   <si>
     <t>Reference to an order/prescription that is being replaced by this MedicationRequest.</t>
@@ -447,7 +447,7 @@
     <t>MedicationRequest.status</t>
   </si>
   <si>
-    <t>active | on-hold | ended | stopped | completed | cancelled | entered-in-error | draft | unknown</t>
+    <t>In new orders, the status must be set to unknown. The Linked Care server will set it to active in the instantiated copies of the positions. Possible values: active, cancelled (end-of-chain), unknown</t>
   </si>
   <si>
     <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
@@ -525,7 +525,7 @@
     <t>MedicationRequest.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | original-order | reflex-order | filler-order | instance-order | option</t>
+    <t>Possible values: proposal (default in contained), order (default in instances), reflex-order (automatically created orders due to an ad-hoc prescription)</t>
   </si>
   <si>
     <t>Whether the request is a proposal, plan, or an original order.</t>
@@ -631,7 +631,7 @@
 </t>
   </si>
   <si>
-    <t>Medication conforming ELGA CodingSystems. At least the central pharma number must be given</t>
+    <t>Medication in conformance with ELGA CodeSystems (text-only, or text and number referencing one of the supported catalogs, as for example the PZN of the Austrian ASP).</t>
   </si>
   <si>
     <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
@@ -671,7 +671,7 @@
 </t>
   </si>
   <si>
-    <t>Each LINCAOrderMedicationRequest is affiliated with one patient. The patient data is conform to the HL7 Austria patient and must be clearly identifieable.</t>
+    <t>Each LINCAOrderMedicationRequest is associated with one patient. The patient data is conformant to the HL7 Austria patient and must be clearly identifiable.</t>
   </si>
   <si>
     <t>The individual or group for whom the medication has been requested.</t>
@@ -704,7 +704,7 @@
 </t>
   </si>
   <si>
-    <t>Who ordered this</t>
+    <t>This contains the identity of the order placer (OID in case of organizations, eID in case of individuals)</t>
   </si>
   <si>
     <t>The person or organization who provided the information about this request, if the source is someone other than the requestor.  This is often used when the MedicationRequest is reported by another person.</t>
@@ -776,7 +776,7 @@
     <t>orderref</t>
   </si>
   <si>
-    <t>Reference to origin (LINCARequestOrchestration) assigned on LinkedCare Platform. Used to link instantiated order items back to their order (LINCARequestOrchestration).</t>
+    <t>Reference to origin (LINCARequestOrchestration) assigned on LinkedCare Platform. Used to link instantiated order items back to the order header (LINCARequestOrchestration).</t>
   </si>
   <si>
     <t>MedicationRequest.authoredOn</t>
@@ -810,7 +810,7 @@
 </t>
   </si>
   <si>
-    <t>Username/account name in software of placer</t>
+    <t>Username/account name as specified by placer</t>
   </si>
   <si>
     <t>The individual, organization, or device that initiated the request and has responsibility for its activation.</t>
@@ -871,7 +871,7 @@
 </t>
   </si>
   <si>
-    <t>The authorizing practicioner for this order item.</t>
+    <t>The authorizing practitioner for this order item (identified by their OID according to GDA Index)</t>
   </si>
   <si>
     <t>The specified desired performer of the medication treatment (e.g. the performer of the medication administration).  For devices, this is the device that is intended to perform the administration of the medication.  An IV Pump would be an example of a device that is performing the administration.  Both the IV Pump and the practitioner that set the rate or bolus on the pump can be listed as performers.</t>
@@ -1914,7 +1914,7 @@
 </t>
   </si>
   <si>
-    <t>Intended performer of dispense</t>
+    <t>Reference to preferred pharmacy for pickup (OID according to GDA Index)</t>
   </si>
   <si>
     <t>Indicates the intended performing Organization that will dispense the medication as specified by the prescriber.</t>
@@ -3576,7 +3576,7 @@
         <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
